--- a/data/trans_camb/P6-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P6-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,69</t>
+          <t>2,68</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,37</t>
+          <t>6,4</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,23</t>
+          <t>8,34</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,39</t>
+          <t>1,86</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>5,28</t>
+          <t>7,49</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>7,16</t>
+          <t>11,32</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,97</t>
+          <t>2,24</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>5,77</t>
+          <t>6,97</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>7,14</t>
+          <t>9,84</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 7,33</t>
+          <t>-3,51; 9,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,07; 11,41</t>
+          <t>-0,56; 13,67</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,69; 12,38</t>
+          <t>1,12; 16,12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 6,01</t>
+          <t>-4,17; 7,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,58; 10,26</t>
+          <t>0,96; 13,71</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,93; 12,88</t>
+          <t>4,53; 18,3</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 5,43</t>
+          <t>-2,23; 6,45</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,23; 9,56</t>
+          <t>2,12; 11,74</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,11; 10,88</t>
+          <t>4,67; 14,93</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>36,8%</t>
+          <t>34,49%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>87,27%</t>
+          <t>82,25%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>99,09%</t>
+          <t>107,24%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>13,52%</t>
+          <t>19,93%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>51,52%</t>
+          <t>80,17%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>69,86%</t>
+          <t>121,11%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>22,19%</t>
+          <t>25,91%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>64,89%</t>
+          <t>80,76%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>80,23%</t>
+          <t>114,01%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-23,59; 142,02</t>
+          <t>-34,25; 182,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,32; 217,14</t>
+          <t>-9,09; 255,95</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>14,55; 235,52</t>
+          <t>4,28; 304,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-25,25; 86,16</t>
+          <t>-34,43; 107,13</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,18; 132,43</t>
+          <t>4,49; 201,28</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>15,34; 166,63</t>
+          <t>35,72; 267,01</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-12,31; 70,19</t>
+          <t>-21,52; 98,15</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>19,03; 124,91</t>
+          <t>15,55; 170,5</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>27,57; 142,37</t>
+          <t>40,63; 219,09</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,88</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,95</t>
+          <t>4,01</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,53</t>
+          <t>9,39</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,96</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>7,45</t>
+          <t>7,01</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>11,69</t>
+          <t>10,05</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,32</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>6,16</t>
+          <t>5,48</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>10,05</t>
+          <t>9,63</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 17,86</t>
+          <t>-4,19; 6,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 10,38</t>
+          <t>-2,11; 10,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,65; 14,88</t>
+          <t>2,13; 18,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 7,44</t>
+          <t>-5,47; 7,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,05; 14,63</t>
+          <t>0,61; 14,22</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,48; 19,63</t>
+          <t>2,99; 17,32</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 9,25</t>
+          <t>-3,03; 5,32</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,15; 10,58</t>
+          <t>1,08; 10,5</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,02; 15,52</t>
+          <t>4,35; 15,21</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>90,39%</t>
+          <t>20,74%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>91,61%</t>
+          <t>86,39%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>157,94%</t>
+          <t>202,51%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>25,52%</t>
+          <t>13,78%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>96,86%</t>
+          <t>83,75%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>151,95%</t>
+          <t>120,08%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>50,07%</t>
+          <t>16,48%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>92,95%</t>
+          <t>82,65%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>151,54%</t>
+          <t>145,24%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-20,72; 477,72</t>
+          <t>-66,6; 330,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-9,36; 273,89</t>
+          <t>-40,58; 534,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>27,72; 393,94</t>
+          <t>5,25; 817,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-30,52; 135,84</t>
+          <t>-50,28; 132,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,7; 271,92</t>
+          <t>0,06; 264,61</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>48,02; 347,19</t>
+          <t>16,02; 339,57</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-9,16; 171,8</t>
+          <t>-37,72; 114,05</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>22,58; 202,64</t>
+          <t>11,51; 234,53</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>64,74; 293,36</t>
+          <t>49,45; 330,3</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,42</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>7,03</t>
+          <t>9,93</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>12,94</t>
+          <t>14,53</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>7,63</t>
+          <t>8,6</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>12,55</t>
+          <t>18,73</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,16</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>7,31</t>
+          <t>9,28</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>12,76</t>
+          <t>16,59</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,96; 13,0</t>
+          <t>-9,4; 14,82</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 20,98</t>
+          <t>-4,68; 30,73</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 27,94</t>
+          <t>-2,11; 39,76</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,48; 10,6</t>
+          <t>-12,8; 9,72</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 19,56</t>
+          <t>-3,82; 24,86</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,98; 24,16</t>
+          <t>3,8; 38,37</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-6,67; 9,03</t>
+          <t>-7,65; 8,62</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 16,64</t>
+          <t>-0,49; 22,28</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,43; 22,72</t>
+          <t>5,43; 31,35</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>16,06%</t>
+          <t>4,88%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>79,73%</t>
+          <t>262,12%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>146,69%</t>
+          <t>383,69%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>10,97%</t>
+          <t>-6,09%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>94,31%</t>
+          <t>139,24%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>155,03%</t>
+          <t>303,46%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>13,64%</t>
+          <t>-1,66%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>86,29%</t>
+          <t>187,01%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>150,49%</t>
+          <t>334,15%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-67,0; 366,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-49,02; 529,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-15,03; 759,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-72,48; 325,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-34,54; 611,06</t>
+          <t>-63,47; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-6,7; 724,5</t>
+          <t>-23,84; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-56,14; 192,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-25,93; 336,56</t>
+          <t>-35,58; 1877,86</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>16,11; 450,93</t>
+          <t>34,45; 2235,89</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,39</t>
+          <t>1,7</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>5,81</t>
+          <t>5,76</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8,43</t>
+          <t>9,44</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,56</t>
+          <t>1,34</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>6,38</t>
+          <t>7,4</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>9,51</t>
+          <t>11,53</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,41</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>6,09</t>
+          <t>6,59</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>8,93</t>
+          <t>10,45</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,18; 8,84</t>
+          <t>-2,58; 5,8</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,56; 9,63</t>
+          <t>1,12; 10,54</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,86; 12,18</t>
+          <t>4,39; 15,02</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 4,51</t>
+          <t>-2,53; 5,42</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,36; 9,81</t>
+          <t>2,97; 12,21</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,26; 13,59</t>
+          <t>6,7; 16,72</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,05; 5,49</t>
+          <t>-1,32; 4,28</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,49; 8,94</t>
+          <t>3,44; 10,05</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>6,02; 11,85</t>
+          <t>6,68; 14,15</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>50,22%</t>
+          <t>27,98%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>86,18%</t>
+          <t>95,01%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>124,98%</t>
+          <t>155,73%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>17,33%</t>
+          <t>15,46%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>70,74%</t>
+          <t>85,56%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>105,42%</t>
+          <t>133,26%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>30,35%</t>
+          <t>20,28%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>76,49%</t>
+          <t>88,53%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>112,23%</t>
+          <t>140,29%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 164,03</t>
+          <t>-30,93; 131,27</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>29,6; 179,39</t>
+          <t>9,36; 242,4</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>57,38; 235,91</t>
+          <t>45,68; 357,97</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-19,45; 59,35</t>
+          <t>-24,31; 82,02</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>21,12; 127,24</t>
+          <t>24,39; 178,28</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>49,47; 172,55</t>
+          <t>62,58; 249,28</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 74,77</t>
+          <t>-15,19; 73,67</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>38,59; 129,84</t>
+          <t>38,18; 170,31</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>66,52; 176,15</t>
+          <t>77,67; 234,29</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
